--- a/dataset/Matching_Results_Comparison/中位数.xlsx
+++ b/dataset/Matching_Results_Comparison/中位数.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.9010989010989011</v>
+        <v>0.905982905982906</v>
       </c>
     </row>
     <row r="3">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -2294,7 +2294,11 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断疾病编码']</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>其他诊断疾病编码</t>
+        </is>
+      </c>
       <c r="D57" t="n">
         <v>4.7702</v>
       </c>
@@ -2308,7 +2312,7 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -26452,7 +26456,7 @@
         </is>
       </c>
       <c r="H802" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -26524,7 +26528,7 @@
         </is>
       </c>
       <c r="H804" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -26560,7 +26564,7 @@
         </is>
       </c>
       <c r="H805" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -26704,7 +26708,7 @@
         </is>
       </c>
       <c r="H809" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -27100,7 +27104,7 @@
         </is>
       </c>
       <c r="H820" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
